--- a/Aplicacion_Sistema_Experto/Sitio_WEB/static/Molinos.xlsx
+++ b/Aplicacion_Sistema_Experto/Sitio_WEB/static/Molinos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\GitHub\Sistema_Experto\Aplicacion_Sistema_Experto\Sitio_WEB\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D2F098-8D38-4D35-90F4-B289E80184B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C51898E-FF9E-454C-8533-C753D295F4E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C7CB5CF0-0CC3-41AE-887E-E42A35BB26A3}"/>
   </bookViews>
@@ -474,7 +474,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="8">
-        <v>12700000</v>
+        <v>11700000</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="H6" s="7">
-        <v>14700000</v>
+        <v>13500000</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,7 +666,7 @@
         <v>22.75</v>
       </c>
       <c r="H7" s="7">
-        <v>14700000</v>
+        <v>14300000</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>24.7</v>
       </c>
       <c r="H10" s="7">
-        <v>18100000</v>
+        <v>17500000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>27.7</v>
       </c>
       <c r="H13" s="7">
-        <v>60000000</v>
+        <v>62000000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
